--- a/src/lab05/data/out/cities.xlsx
+++ b/src/lab05/data/out/cities.xlsx
@@ -9,9 +9,31 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>city	country	population</t>
+  </si>
+  <si>
+    <t>SPB	Russia	5384342</t>
+  </si>
+  <si>
+    <t>Moscow	Russia	13010112</t>
+  </si>
+  <si>
+    <t>Kazan	Russia	1306953</t>
+  </si>
+  <si>
+    <t>Novosibirsk	Russia	1620162</t>
+  </si>
+  <si>
+    <t>Yekaterinburg	Russia	1493749</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,54 +438,42 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D7" sqref="D7" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>city	country	population</t>
-        </is>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SPB	Russia	5384342</t>
-        </is>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Moscow	Russia	13010112</t>
-        </is>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Kazan	Russia	1306953</t>
-        </is>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Novosibirsk	Russia	1620162</t>
-        </is>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Yekaterinburg	Russia	1493749</t>
-        </is>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
